--- a/ArquivosFeitos/arquivoFeito.xlsx
+++ b/ArquivosFeitos/arquivoFeito.xlsx
@@ -4,7 +4,8 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha" sheetId="2" r:id="rId2"/>
+    <sheet name="Recebidos" sheetId="2" r:id="rId2"/>
+    <sheet name="Gastos" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -806,7 +807,7 @@
         <v>65a925e0-66de-4b90-a5c5-a9984883a3a7</v>
       </c>
       <c r="D29" t="str">
-        <v>Compra no débito - Alguma coisa</v>
+        <v>Compra no débito - Smart TV</v>
       </c>
     </row>
     <row r="30">
@@ -1098,224 +1099,555 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Recebidos</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Tipos de Recebimentos</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>R$ 72.91</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Reembolso recebido pelo Pix</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>R$ 50</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Transferência recebida pelo Pix</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>R$ 100</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Transferência Recebida</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>R$ 10760</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Transferência Recebida</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>R$ 14500</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Resgate Web</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>R$ 8408.12</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Resgate Fundo</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>R$ 100</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Transferência Recebida</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
         <v>Gastos</v>
       </c>
+      <c r="B1" t="str">
+        <v>Tipos de gastos</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Nomes</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>R$ -1210</v>
       </c>
+      <c r="B2" t="str">
+        <v>Pagamento de boleto efetuado</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Empresa Zeta</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>R$ -109.9</v>
       </c>
+      <c r="B3" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>R$ -10</v>
       </c>
+      <c r="B4" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>R$ -30</v>
       </c>
+      <c r="B5" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>R$ -130</v>
       </c>
+      <c r="B6" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>R$ -5</v>
       </c>
+      <c r="B7" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>R$ -50</v>
       </c>
+      <c r="B8" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <v>R$ -640.35</v>
       </c>
+      <c r="B9" t="str">
+        <v>Pagamento de boleto efetuado</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Empresa Zeta</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>R$ -20</v>
       </c>
+      <c r="B10" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v>R$ -30</v>
       </c>
+      <c r="B11" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>R$ -327.06</v>
       </c>
+      <c r="B12" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v>R$ -54.77</v>
       </c>
+      <c r="B13" t="str">
+        <v>Compra no débito</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Alguma Coisa</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <v>R$ -4382.69</v>
       </c>
+      <c r="B14" t="str">
+        <v>Pagamento de boleto efetuado</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Empresa Zeta</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <v>R$ -400</v>
       </c>
+      <c r="B15" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <v>R$ -636.59</v>
       </c>
+      <c r="B16" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <v>R$ -73.72</v>
       </c>
+      <c r="B17" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C17" t="str">
+        <v>CIA DE SANEAMENTO BASICO DO ESTADO DE SAO PAULO SABESP</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v>R$ -1000</v>
       </c>
+      <c r="B18" t="str">
+        <v>Aplicação Web</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <v>R$ -500</v>
       </c>
+      <c r="B19" t="str">
+        <v>Aplicação Fundo</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Nu Reserva Imediata</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <v>R$ -132</v>
       </c>
+      <c r="B20" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Growth Supplements</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <v>R$ -14500</v>
       </c>
+      <c r="B21" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Growth Supplements</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
         <v>R$ -10000</v>
       </c>
+      <c r="B22" t="str">
+        <v>Aplicação Web</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
         <v>R$ -21.07</v>
       </c>
+      <c r="B23" t="str">
+        <v>Compra no débito</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Smart TV</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
         <v>R$ -245</v>
       </c>
+      <c r="B24" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Growth Supplements</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
         <v>R$ -80</v>
       </c>
+      <c r="B25" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
         <v>R$ -43.5</v>
       </c>
+      <c r="B26" t="str">
+        <v>Compra no débito</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Alguma coisa</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
         <v>R$ -372.71</v>
       </c>
+      <c r="B27" t="str">
+        <v>Pagamento de fatura</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
         <v>R$ -100</v>
       </c>
+      <c r="B28" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
         <v>R$ -150</v>
       </c>
+      <c r="B29" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
         <v>R$ -31.53</v>
       </c>
+      <c r="B30" t="str">
+        <v>Compra no débito</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Jotaro Kujo</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
         <v>R$ -117.06</v>
       </c>
+      <c r="B31" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Growth Supplements</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
         <v>R$ -149.97</v>
       </c>
+      <c r="B32" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Growth Supplements</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
         <v>R$ -47.92</v>
       </c>
+      <c r="B33" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Growth Supplements</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
         <v>R$ -40</v>
       </c>
+      <c r="B34" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Growth Supplements</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
         <v>R$ -100</v>
       </c>
+      <c r="B35" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
         <v>R$ -20</v>
       </c>
+      <c r="B36" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
         <v>R$ -17</v>
       </c>
+      <c r="B37" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
         <v>R$ -169.56</v>
       </c>
+      <c r="B38" t="str">
+        <v>Pagamento de boleto efetuado</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Empresa Zeta</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
         <v>R$ -35</v>
       </c>
+      <c r="B39" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
         <v>R$ -45</v>
       </c>
+      <c r="B40" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
         <v>R$ -300</v>
       </c>
+      <c r="B41" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
         <v>R$ -29</v>
       </c>
+      <c r="B42" t="str">
+        <v>Transferência enviada pelo Pix</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Renata Almeida</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ArquivosFeitos/arquivoFeito.xlsx
+++ b/ArquivosFeitos/arquivoFeito.xlsx
@@ -6,6 +6,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Recebidos" sheetId="2" r:id="rId2"/>
     <sheet name="Gastos" sheetId="3" r:id="rId3"/>
+    <sheet name="Total" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -426,7 +427,7 @@
         <v>-1210</v>
       </c>
       <c r="C2" t="str">
-        <v>6594478c-3553-43db-ac14-bca98cb05756</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D2" t="str">
         <v>Pagamento de boleto efetuado - Empresa Zeta</v>
@@ -440,7 +441,7 @@
         <v>-109.9</v>
       </c>
       <c r="C3" t="str">
-        <v>6595acfc-86f1-43b1-ad28-39a1efb19c21</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D3" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -454,7 +455,7 @@
         <v>72.91</v>
       </c>
       <c r="C4" t="str">
-        <v>65982025-4ab7-47ff-bc28-94395b547afa</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D4" t="str">
         <v>Reembolso recebido pelo Pix - IFOOD - 22.222.222/2222-22 - MERCADO PAGO IP LTDA. (2222) Agência: 1 Conta: 1111111111-1</v>
@@ -468,7 +469,7 @@
         <v>-10</v>
       </c>
       <c r="C5" t="str">
-        <v>6599c785-f20d-42cb-9917-e1ee1ba6ebca</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D5" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -482,7 +483,7 @@
         <v>-30</v>
       </c>
       <c r="C6" t="str">
-        <v>659a1b5d-796e-402f-a4f3-bcb966597711</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D6" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -496,7 +497,7 @@
         <v>-130</v>
       </c>
       <c r="C7" t="str">
-        <v>659aa395-d942-4bbb-97f4-99fac7851d1f</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D7" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -510,7 +511,7 @@
         <v>-5</v>
       </c>
       <c r="C8" t="str">
-        <v>659aaf0a-e9aa-44e5-92ad-adb54f236b8d</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D8" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -524,7 +525,7 @@
         <v>-50</v>
       </c>
       <c r="C9" t="str">
-        <v>659afaf7-54c7-4339-acf2-bcdccf622aa7</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D9" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -538,7 +539,7 @@
         <v>-640.35</v>
       </c>
       <c r="C10" t="str">
-        <v>659d537c-88ba-4501-9ae8-1a3748461d42</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D10" t="str">
         <v>Pagamento de boleto efetuado - Empresa Zeta</v>
@@ -552,7 +553,7 @@
         <v>-20</v>
       </c>
       <c r="C11" t="str">
-        <v>65a00130-327a-44e4-a431-29ca12efebf0</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D11" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -566,7 +567,7 @@
         <v>-30</v>
       </c>
       <c r="C12" t="str">
-        <v>65a0020a-07b3-4e0e-904b-6066fb452e06</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D12" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -580,7 +581,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="str">
-        <v>65a0031f-4661-42ba-9a5a-b720981d560e</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D13" t="str">
         <v>Transferência recebida pelo Pix - André Oliveira - •••.444.777-••• - Banco X S.A. (0001) Agência: 9 Conta: 1234567-8</v>
@@ -594,7 +595,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="str">
-        <v>65a50520-4e67-4455-815b-f01e0c15a444</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D14" t="str">
         <v>Transferência Recebida - Carla Silva - •••.888.222-••• - Banco W S.A. (0237) Agência: 3 Conta: 2345678-9</v>
@@ -608,7 +609,7 @@
         <v>-327.06</v>
       </c>
       <c r="C15" t="str">
-        <v>65a5a751-ba71-49da-a9de-037d4a6f3ea6</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D15" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -622,7 +623,7 @@
         <v>-54.77</v>
       </c>
       <c r="C16" t="str">
-        <v>65a6f3e8-d3a9-419d-8674-c4f12948fe60</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D16" t="str">
         <v>Compra no débito - Alguma Coisa</v>
@@ -636,7 +637,7 @@
         <v>10760</v>
       </c>
       <c r="C17" t="str">
-        <v>65a803a6-ada9-412d-b9ca-5426d32e41cd</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D17" t="str">
         <v>Transferência Recebida - Carla Silva - •••.888.222-••• - Banco W S.A. (0237) Agência: 3 Conta: 2345678-9</v>
@@ -650,7 +651,7 @@
         <v>-4382.69</v>
       </c>
       <c r="C18" t="str">
-        <v>65a803d4-b798-4ca9-96e0-b77ccaae0bc8</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D18" t="str">
         <v>Pagamento de boleto efetuado - Empresa Zeta</v>
@@ -664,7 +665,7 @@
         <v>-400</v>
       </c>
       <c r="C19" t="str">
-        <v>65a80421-b76b-4715-9e4d-2a95bcdf6266</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D19" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -678,7 +679,7 @@
         <v>-636.59</v>
       </c>
       <c r="C20" t="str">
-        <v>65a80560-4622-439b-bb18-e9e1e98f1476</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D20" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -692,7 +693,7 @@
         <v>-73.72</v>
       </c>
       <c r="C21" t="str">
-        <v>65a805e4-4349-4aa5-854a-99aa490b604f</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D21" t="str">
         <v>Transferência enviada pelo Pix - CIA DE SANEAMENTO BASICO DO ESTADO DE SAO PAULO SABESP - 77.777.777/7777-77 - BCO DO BRASIL S.A. (0001) Agência: 3070 Conta: 777777-7</v>
@@ -706,7 +707,7 @@
         <v>-1000</v>
       </c>
       <c r="C22" t="str">
-        <v>65a80663-ae13-4a42-9381-42203a8ee70c</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D22" t="str">
         <v>Aplicação Web</v>
@@ -720,7 +721,7 @@
         <v>-500</v>
       </c>
       <c r="C23" t="str">
-        <v>65a8068e-c839-4254-ac5b-a824162e9cb4</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D23" t="str">
         <v>Aplicação Fundo - Nu Reserva Imediata</v>
@@ -734,7 +735,7 @@
         <v>-132</v>
       </c>
       <c r="C24" t="str">
-        <v>65a815d6-c24b-4625-817b-02905b65a2c5</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D24" t="str">
         <v>Transferência enviada pelo Pix - Growth Supplements - 11.111.111/1111-11 - NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
@@ -748,7 +749,7 @@
         <v>14500</v>
       </c>
       <c r="C25" t="str">
-        <v>65a83366-c6b8-4724-8c15-ef3a3d320233</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D25" t="str">
         <v>Resgate Web</v>
@@ -762,7 +763,7 @@
         <v>-14500</v>
       </c>
       <c r="C26" t="str">
-        <v>65a833b1-fd31-4b0e-8e38-727e0b2ae8f0</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D26" t="str">
         <v>Transferência enviada pelo Pix - Growth Supplements - 11.111.111/1111-11 - NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
@@ -776,7 +777,7 @@
         <v>8408.12</v>
       </c>
       <c r="C27" t="str">
-        <v>65a9216a-6a1b-4096-80a1-205ec9f200dc</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D27" t="str">
         <v>Resgate Fundo - Nu Reserva Imediata</v>
@@ -790,7 +791,7 @@
         <v>-10000</v>
       </c>
       <c r="C28" t="str">
-        <v>65a92327-abbc-4f0f-8e9a-ec50c4f885bc</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D28" t="str">
         <v>Aplicação Web</v>
@@ -804,7 +805,7 @@
         <v>-21.07</v>
       </c>
       <c r="C29" t="str">
-        <v>65a925e0-66de-4b90-a5c5-a9984883a3a7</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D29" t="str">
         <v>Compra no débito - Smart TV</v>
@@ -818,7 +819,7 @@
         <v>-245</v>
       </c>
       <c r="C30" t="str">
-        <v>65a9743d-ef7b-4818-b207-11e519a9a84a</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D30" t="str">
         <v>Transferência enviada pelo Pix - Growth Supplements - 11.111.111/1111-11 - NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
@@ -832,7 +833,7 @@
         <v>-80</v>
       </c>
       <c r="C31" t="str">
-        <v>65a9c0f5-4572-43bf-95df-f5bb7261535d</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D31" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -846,7 +847,7 @@
         <v>-43.5</v>
       </c>
       <c r="C32" t="str">
-        <v>65a9cd53-2c89-4109-99c6-943528145453</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D32" t="str">
         <v>Compra no débito - Alguma coisa</v>
@@ -860,7 +861,7 @@
         <v>-372.71</v>
       </c>
       <c r="C33" t="str">
-        <v>65aa7704-be1d-4b33-a53a-4f89bb4067a4</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D33" t="str">
         <v>Pagamento de fatura</v>
@@ -874,7 +875,7 @@
         <v>-100</v>
       </c>
       <c r="C34" t="str">
-        <v>65ab03a4-f119-4ed1-98ca-2be3aac4f037</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D34" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -888,7 +889,7 @@
         <v>-150</v>
       </c>
       <c r="C35" t="str">
-        <v>65ab048f-2600-4d36-bf55-5c1b816a7d6f</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D35" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -902,7 +903,7 @@
         <v>-31.53</v>
       </c>
       <c r="C36" t="str">
-        <v>65ac32fb-b861-49f2-9fdf-5030949c03a5</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D36" t="str">
         <v>Compra no débito - Jotaro Kujo</v>
@@ -916,7 +917,7 @@
         <v>-117.06</v>
       </c>
       <c r="C37" t="str">
-        <v>65b1124f-1c7e-4185-a14e-52dbf7ec6d34</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D37" t="str">
         <v>Transferência enviada pelo Pix - Growth Supplements - 11.111.111/1111-11 - NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
@@ -930,7 +931,7 @@
         <v>-149.97</v>
       </c>
       <c r="C38" t="str">
-        <v>65b114f0-e546-4124-92bf-0d85d6f24e9d</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D38" t="str">
         <v>Transferência enviada pelo Pix - Growth Supplements - 11.111.111/1111-11 - NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
@@ -944,7 +945,7 @@
         <v>-47.92</v>
       </c>
       <c r="C39" t="str">
-        <v>65b16b17-a690-4784-ab9f-e3b4641a1372</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D39" t="str">
         <v>Transferência enviada pelo Pix - Growth Supplements - 11.111.111/1111-11 - NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
@@ -958,7 +959,7 @@
         <v>-40</v>
       </c>
       <c r="C40" t="str">
-        <v>65b16b32-14b7-4935-92db-fbd76deeccdf</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D40" t="str">
         <v>Transferência enviada pelo Pix - Growth Supplements - 11.111.111/1111-11 - NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
@@ -972,7 +973,7 @@
         <v>-100</v>
       </c>
       <c r="C41" t="str">
-        <v>65b1a0c9-0f9f-4b17-a481-6f47f8004041</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D41" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -986,7 +987,7 @@
         <v>-20</v>
       </c>
       <c r="C42" t="str">
-        <v>65b2f451-2f8e-4a87-9811-049b3f2e3b4c</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D42" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -1000,7 +1001,7 @@
         <v>-17</v>
       </c>
       <c r="C43" t="str">
-        <v>65b2f76c-3367-4201-96da-cc0708653f31</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D43" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -1014,7 +1015,7 @@
         <v>100</v>
       </c>
       <c r="C44" t="str">
-        <v>65b3a31a-523b-4e0e-8863-6a1b5d61e006</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D44" t="str">
         <v>Transferência Recebida - Carla Silva - •••.888.222-••• - Banco W S.A. (0237) Agência: 3 Conta: 2345678-9</v>
@@ -1028,7 +1029,7 @@
         <v>-169.56</v>
       </c>
       <c r="C45" t="str">
-        <v>65b3c9ca-e694-46bd-b401-ef3dd0075d88</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D45" t="str">
         <v>Pagamento de boleto efetuado - Empresa Zeta</v>
@@ -1042,7 +1043,7 @@
         <v>-35</v>
       </c>
       <c r="C46" t="str">
-        <v>65b428cb-1a52-4bba-85d1-40431c5d3a7f</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D46" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -1056,7 +1057,7 @@
         <v>-45</v>
       </c>
       <c r="C47" t="str">
-        <v>65b5925a-86aa-4135-bdf6-f8b10974b033</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D47" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -1070,7 +1071,7 @@
         <v>-300</v>
       </c>
       <c r="C48" t="str">
-        <v>65b69e1a-268b-427f-a58d-5d23aa278118</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D48" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -1084,7 +1085,7 @@
         <v>-29</v>
       </c>
       <c r="C49" t="str">
-        <v>65b6eb54-5f92-4521-a1a8-6924860cb2b7</v>
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D49" t="str">
         <v>Transferência enviada pelo Pix - Renata Almeida - •••.555.777-••• - Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
@@ -1650,4 +1651,52 @@
     <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Gastos planejados</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Gastos Reais</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Entradas</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Lucro/Prejuizo</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-36357</v>
+      </c>
+      <c r="C2">
+        <v>33991</v>
+      </c>
+      <c r="D2">
+        <v>-2366</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/ArquivosFeitos/arquivoFeito.xlsx
+++ b/ArquivosFeitos/arquivoFeito.xlsx
@@ -724,7 +724,7 @@
         <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D23" t="str">
-        <v>Aplicação Fundo - Nu Reserva Imediata</v>
+        <v>Aplicação Fundo - Reserva Alguma coisa</v>
       </c>
     </row>
     <row r="24">
@@ -780,7 +780,7 @@
         <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
       </c>
       <c r="D27" t="str">
-        <v>Resgate Fundo - Nu Reserva Imediata</v>
+        <v>Resgate Fundo - Reserva Alguma coisa</v>
       </c>
     </row>
     <row r="28">
@@ -1100,14 +1100,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1117,6 +1119,9 @@
       <c r="B1" t="str">
         <v>Tipos de Recebimentos</v>
       </c>
+      <c r="C1" t="str">
+        <v>Nomes</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1125,6 +1130,9 @@
       <c r="B2" t="str">
         <v>Reembolso recebido pelo Pix</v>
       </c>
+      <c r="C2" t="str">
+        <v>IFOOD</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1133,6 +1141,9 @@
       <c r="B3" t="str">
         <v>Transferência recebida pelo Pix</v>
       </c>
+      <c r="C3" t="str">
+        <v>André Oliveira</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1141,6 +1152,9 @@
       <c r="B4" t="str">
         <v>Transferência Recebida</v>
       </c>
+      <c r="C4" t="str">
+        <v>Carla Silva</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1149,6 +1163,9 @@
       <c r="B5" t="str">
         <v>Transferência Recebida</v>
       </c>
+      <c r="C5" t="str">
+        <v>Carla Silva</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1165,6 +1182,9 @@
       <c r="B7" t="str">
         <v>Resgate Fundo</v>
       </c>
+      <c r="C7" t="str">
+        <v>Reserva Alguma coisa</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1173,24 +1193,29 @@
       <c r="B8" t="str">
         <v>Transferência Recebida</v>
       </c>
+      <c r="C8" t="str">
+        <v>Carla Silva</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1203,6 +1228,12 @@
       <c r="C1" t="str">
         <v>Nomes</v>
       </c>
+      <c r="D1" t="str">
+        <v>Dados Do Banco</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Banco</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1225,6 +1256,12 @@
       <c r="C3" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D3" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1236,6 +1273,12 @@
       <c r="C4" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D4" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1247,6 +1290,12 @@
       <c r="C5" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D5" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1258,6 +1307,12 @@
       <c r="C6" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D6" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -1269,6 +1324,12 @@
       <c r="C7" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D7" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1280,6 +1341,12 @@
       <c r="C8" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D8" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1302,6 +1369,12 @@
       <c r="C10" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D10" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1313,6 +1386,12 @@
       <c r="C11" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D11" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1324,6 +1403,12 @@
       <c r="C12" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D12" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1357,6 +1442,12 @@
       <c r="C15" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D15" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1368,6 +1459,12 @@
       <c r="C16" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D16" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1379,6 +1476,12 @@
       <c r="C17" t="str">
         <v>CIA DE SANEAMENTO BASICO DO ESTADO DE SAO PAULO SABESP</v>
       </c>
+      <c r="D17" t="str">
+        <v>77.777.777/7777-77</v>
+      </c>
+      <c r="E17" t="str">
+        <v>BCO DO BRASIL S.A. (0001) Agência: 3070 Conta: 777777-7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1396,7 +1499,7 @@
         <v>Aplicação Fundo</v>
       </c>
       <c r="C19" t="str">
-        <v>Nu Reserva Imediata</v>
+        <v>Reserva Alguma coisa</v>
       </c>
     </row>
     <row r="20">
@@ -1409,6 +1512,12 @@
       <c r="C20" t="str">
         <v>Growth Supplements</v>
       </c>
+      <c r="D20" t="str">
+        <v>11.111.111/1111-11</v>
+      </c>
+      <c r="E20" t="str">
+        <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1420,6 +1529,12 @@
       <c r="C21" t="str">
         <v>Growth Supplements</v>
       </c>
+      <c r="D21" t="str">
+        <v>11.111.111/1111-11</v>
+      </c>
+      <c r="E21" t="str">
+        <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1450,6 +1565,12 @@
       <c r="C24" t="str">
         <v>Growth Supplements</v>
       </c>
+      <c r="D24" t="str">
+        <v>11.111.111/1111-11</v>
+      </c>
+      <c r="E24" t="str">
+        <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -1461,6 +1582,12 @@
       <c r="C25" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D25" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -1491,6 +1618,12 @@
       <c r="C28" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D28" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1502,6 +1635,12 @@
       <c r="C29" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D29" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1524,6 +1663,12 @@
       <c r="C31" t="str">
         <v>Growth Supplements</v>
       </c>
+      <c r="D31" t="str">
+        <v>11.111.111/1111-11</v>
+      </c>
+      <c r="E31" t="str">
+        <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1535,6 +1680,12 @@
       <c r="C32" t="str">
         <v>Growth Supplements</v>
       </c>
+      <c r="D32" t="str">
+        <v>11.111.111/1111-11</v>
+      </c>
+      <c r="E32" t="str">
+        <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1546,6 +1697,12 @@
       <c r="C33" t="str">
         <v>Growth Supplements</v>
       </c>
+      <c r="D33" t="str">
+        <v>11.111.111/1111-11</v>
+      </c>
+      <c r="E33" t="str">
+        <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1557,6 +1714,12 @@
       <c r="C34" t="str">
         <v>Growth Supplements</v>
       </c>
+      <c r="D34" t="str">
+        <v>11.111.111/1111-11</v>
+      </c>
+      <c r="E34" t="str">
+        <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1568,6 +1731,12 @@
       <c r="C35" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D35" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1579,6 +1748,12 @@
       <c r="C36" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D36" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1590,6 +1765,12 @@
       <c r="C37" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D37" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1612,6 +1793,12 @@
       <c r="C39" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D39" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1623,6 +1810,12 @@
       <c r="C40" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D40" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1634,6 +1827,12 @@
       <c r="C41" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D41" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1645,10 +1844,16 @@
       <c r="C42" t="str">
         <v>Renata Almeida</v>
       </c>
+      <c r="D42" t="str">
+        <v>•••.555.777-•••</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E42"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1668,30 +1873,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>Gastos Totais</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Entradas</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Lucro/Prejuizo</v>
+      </c>
+      <c r="D1" t="str">
         <v>Gastos planejados</v>
       </c>
-      <c r="B1" t="str">
-        <v>Gastos Reais</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Entradas</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Lucro/Prejuizo</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-36357</v>
-      </c>
-      <c r="C2">
-        <v>33991</v>
-      </c>
-      <c r="D2">
-        <v>-2366</v>
+      <c r="A2" t="str">
+        <v>R$ -36357</v>
+      </c>
+      <c r="B2" t="str">
+        <v>R$ 33991</v>
+      </c>
+      <c r="C2" t="str">
+        <v>R$ -2366</v>
+      </c>
+      <c r="D2" t="str">
+        <v>R$ 20111</v>
       </c>
     </row>
   </sheetData>

--- a/ArquivosFeitos/arquivoFeito.xlsx
+++ b/ArquivosFeitos/arquivoFeito.xlsx
@@ -1100,16 +1100,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1122,6 +1123,9 @@
       <c r="C1" t="str">
         <v>Nomes</v>
       </c>
+      <c r="D1" t="str">
+        <v>Dados Do Banco</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1133,6 +1137,9 @@
       <c r="C2" t="str">
         <v>IFOOD</v>
       </c>
+      <c r="D2" t="str">
+        <v>22.222.222/2222-22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1144,6 +1151,9 @@
       <c r="C3" t="str">
         <v>André Oliveira</v>
       </c>
+      <c r="D3" t="str">
+        <v>•••.444.777-•••</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1155,6 +1165,9 @@
       <c r="C4" t="str">
         <v>Carla Silva</v>
       </c>
+      <c r="D4" t="str">
+        <v>•••.888.222-•••</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1166,6 +1179,9 @@
       <c r="C5" t="str">
         <v>Carla Silva</v>
       </c>
+      <c r="D5" t="str">
+        <v>•••.888.222-•••</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1196,26 +1212,30 @@
       <c r="C8" t="str">
         <v>Carla Silva</v>
       </c>
+      <c r="D8" t="str">
+        <v>•••.888.222-•••</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1226,12 +1246,15 @@
         <v>Tipos de gastos</v>
       </c>
       <c r="C1" t="str">
+        <v>Identificador</v>
+      </c>
+      <c r="D1" t="str">
         <v>Nomes</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Dados Do Banco</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>Banco</v>
       </c>
     </row>
@@ -1243,6 +1266,9 @@
         <v>Pagamento de boleto efetuado</v>
       </c>
       <c r="C2" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D2" t="str">
         <v>Empresa Zeta</v>
       </c>
     </row>
@@ -1254,12 +1280,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C3" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D3" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1271,12 +1300,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C4" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D4" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1288,12 +1320,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C5" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D5" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1305,12 +1340,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C6" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D6" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1322,12 +1360,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C7" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D7" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E7" t="str">
+      <c r="F7" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1339,12 +1380,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C8" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D8" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1356,6 +1400,9 @@
         <v>Pagamento de boleto efetuado</v>
       </c>
       <c r="C9" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D9" t="str">
         <v>Empresa Zeta</v>
       </c>
     </row>
@@ -1367,12 +1414,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C10" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D10" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1384,12 +1434,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C11" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D11" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E11" t="str">
+      <c r="F11" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1401,12 +1454,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C12" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D12" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E12" t="str">
+      <c r="F12" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1418,6 +1474,9 @@
         <v>Compra no débito</v>
       </c>
       <c r="C13" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D13" t="str">
         <v>Alguma Coisa</v>
       </c>
     </row>
@@ -1429,6 +1488,9 @@
         <v>Pagamento de boleto efetuado</v>
       </c>
       <c r="C14" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D14" t="str">
         <v>Empresa Zeta</v>
       </c>
     </row>
@@ -1440,12 +1502,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C15" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D15" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D15" t="str">
+      <c r="E15" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E15" t="str">
+      <c r="F15" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1457,12 +1522,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C16" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D16" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E16" t="str">
+      <c r="F16" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1474,12 +1542,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C17" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D17" t="str">
         <v>CIA DE SANEAMENTO BASICO DO ESTADO DE SAO PAULO SABESP</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E17" t="str">
         <v>77.777.777/7777-77</v>
       </c>
-      <c r="E17" t="str">
+      <c r="F17" t="str">
         <v>BCO DO BRASIL S.A. (0001) Agência: 3070 Conta: 777777-7</v>
       </c>
     </row>
@@ -1490,6 +1561,9 @@
       <c r="B18" t="str">
         <v>Aplicação Web</v>
       </c>
+      <c r="C18" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1499,6 +1573,9 @@
         <v>Aplicação Fundo</v>
       </c>
       <c r="C19" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D19" t="str">
         <v>Reserva Alguma coisa</v>
       </c>
     </row>
@@ -1510,12 +1587,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C20" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D20" t="str">
         <v>Growth Supplements</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <v>11.111.111/1111-11</v>
       </c>
-      <c r="E20" t="str">
+      <c r="F20" t="str">
         <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
       </c>
     </row>
@@ -1527,12 +1607,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C21" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D21" t="str">
         <v>Growth Supplements</v>
       </c>
-      <c r="D21" t="str">
+      <c r="E21" t="str">
         <v>11.111.111/1111-11</v>
       </c>
-      <c r="E21" t="str">
+      <c r="F21" t="str">
         <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
       </c>
     </row>
@@ -1543,6 +1626,9 @@
       <c r="B22" t="str">
         <v>Aplicação Web</v>
       </c>
+      <c r="C22" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -1552,6 +1638,9 @@
         <v>Compra no débito</v>
       </c>
       <c r="C23" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D23" t="str">
         <v>Smart TV</v>
       </c>
     </row>
@@ -1563,12 +1652,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C24" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D24" t="str">
         <v>Growth Supplements</v>
       </c>
-      <c r="D24" t="str">
+      <c r="E24" t="str">
         <v>11.111.111/1111-11</v>
       </c>
-      <c r="E24" t="str">
+      <c r="F24" t="str">
         <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
       </c>
     </row>
@@ -1580,12 +1672,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C25" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D25" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D25" t="str">
+      <c r="E25" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E25" t="str">
+      <c r="F25" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1597,6 +1692,9 @@
         <v>Compra no débito</v>
       </c>
       <c r="C26" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D26" t="str">
         <v>Alguma coisa</v>
       </c>
     </row>
@@ -1607,6 +1705,9 @@
       <c r="B27" t="str">
         <v>Pagamento de fatura</v>
       </c>
+      <c r="C27" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1616,12 +1717,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C28" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D28" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D28" t="str">
+      <c r="E28" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E28" t="str">
+      <c r="F28" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1633,12 +1737,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C29" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D29" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D29" t="str">
+      <c r="E29" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E29" t="str">
+      <c r="F29" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1650,6 +1757,9 @@
         <v>Compra no débito</v>
       </c>
       <c r="C30" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D30" t="str">
         <v>Jotaro Kujo</v>
       </c>
     </row>
@@ -1661,12 +1771,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C31" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D31" t="str">
         <v>Growth Supplements</v>
       </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
         <v>11.111.111/1111-11</v>
       </c>
-      <c r="E31" t="str">
+      <c r="F31" t="str">
         <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
       </c>
     </row>
@@ -1678,12 +1791,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C32" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D32" t="str">
         <v>Growth Supplements</v>
       </c>
-      <c r="D32" t="str">
+      <c r="E32" t="str">
         <v>11.111.111/1111-11</v>
       </c>
-      <c r="E32" t="str">
+      <c r="F32" t="str">
         <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
       </c>
     </row>
@@ -1695,12 +1811,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C33" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D33" t="str">
         <v>Growth Supplements</v>
       </c>
-      <c r="D33" t="str">
+      <c r="E33" t="str">
         <v>11.111.111/1111-11</v>
       </c>
-      <c r="E33" t="str">
+      <c r="F33" t="str">
         <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
       </c>
     </row>
@@ -1712,12 +1831,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C34" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D34" t="str">
         <v>Growth Supplements</v>
       </c>
-      <c r="D34" t="str">
+      <c r="E34" t="str">
         <v>11.111.111/1111-11</v>
       </c>
-      <c r="E34" t="str">
+      <c r="F34" t="str">
         <v>NUPAY FOR BUSINESS IP LTDA. Agência: 1 Conta: 111111-2</v>
       </c>
     </row>
@@ -1729,12 +1851,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C35" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D35" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D35" t="str">
+      <c r="E35" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E35" t="str">
+      <c r="F35" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1746,12 +1871,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C36" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D36" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D36" t="str">
+      <c r="E36" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E36" t="str">
+      <c r="F36" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1763,12 +1891,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C37" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D37" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D37" t="str">
+      <c r="E37" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E37" t="str">
+      <c r="F37" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1780,6 +1911,9 @@
         <v>Pagamento de boleto efetuado</v>
       </c>
       <c r="C38" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D38" t="str">
         <v>Empresa Zeta</v>
       </c>
     </row>
@@ -1791,12 +1925,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C39" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D39" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D39" t="str">
+      <c r="E39" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E39" t="str">
+      <c r="F39" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1808,12 +1945,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C40" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D40" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D40" t="str">
+      <c r="E40" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E40" t="str">
+      <c r="F40" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1825,12 +1965,15 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C41" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D41" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D41" t="str">
+      <c r="E41" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E41" t="str">
+      <c r="F41" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
@@ -1842,18 +1985,21 @@
         <v>Transferência enviada pelo Pix</v>
       </c>
       <c r="C42" t="str">
+        <v>7942b9da-1c3e-4f9d-8c22-7fe6e59a8d88</v>
+      </c>
+      <c r="D42" t="str">
         <v>Renata Almeida</v>
       </c>
-      <c r="D42" t="str">
+      <c r="E42" t="str">
         <v>•••.555.777-•••</v>
       </c>
-      <c r="E42" t="str">
+      <c r="F42" t="str">
         <v>Banco X S.A. (0341) Agência: 7 Conta: 0123456-7</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F42"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1896,7 +2042,7 @@
         <v>R$ -2366</v>
       </c>
       <c r="D2" t="str">
-        <v>R$ 20111</v>
+        <v>R$ 1</v>
       </c>
     </row>
   </sheetData>
